--- a/summary_file_droppeCOVIDrevs_FY2022.xlsx
+++ b/summary_file_droppeCOVIDrevs_FY2022.xlsx
@@ -21937,7 +21937,7 @@
         <v>59</v>
       </c>
       <c r="D696" t="n">
-        <v>1897.14146819</v>
+        <v>1676.31878603</v>
       </c>
       <c r="E696" t="s">
         <v>60</v>
@@ -22447,7 +22447,7 @@
         <v>59</v>
       </c>
       <c r="D726" t="n">
-        <v>1441.10864181</v>
+        <v>1422.1425942</v>
       </c>
       <c r="E726" t="s">
         <v>60</v>
@@ -22566,7 +22566,7 @@
         <v>73</v>
       </c>
       <c r="D733" t="n">
-        <v>2250.39128296</v>
+        <v>1879.30158746</v>
       </c>
       <c r="E733" t="s">
         <v>74</v>
@@ -23020,58 +23020,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B10" t="n">
         <v>2.3</v>
       </c>
       <c r="C10" t="n">
-        <v>34.07</v>
+        <v>4.72</v>
       </c>
       <c r="D10" t="n">
-        <v>7.24</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="C11" t="n">
-        <v>4.72</v>
+        <v>7.21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.44</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7.21</v>
+        <v>-0.83</v>
       </c>
       <c r="D12" t="n">
-        <v>7.54</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.83</v>
+        <v>11.96</v>
       </c>
       <c r="D13" t="n">
-        <v>6.11</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="14">
@@ -23124,10 +23124,10 @@
         <v>1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>-24.04</v>
+        <v>-15.16</v>
       </c>
       <c r="D17" t="n">
-        <v>4.83</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="18">
@@ -24385,22 +24385,22 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>-24.04</v>
+        <v>-15.16</v>
       </c>
       <c r="C8" t="n">
-        <v>52.43</v>
+        <v>51.43</v>
       </c>
       <c r="D8" t="n">
-        <v>35.74</v>
+        <v>35.14</v>
       </c>
       <c r="E8" t="n">
-        <v>17.29</v>
+        <v>16.98</v>
       </c>
       <c r="F8" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="G8" t="n">
-        <v>4.83</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="9">
@@ -24822,22 +24822,22 @@
         <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>34.07</v>
+        <v>11.96</v>
       </c>
       <c r="C27" t="n">
-        <v>41.36</v>
+        <v>29.18</v>
       </c>
       <c r="D27" t="n">
-        <v>55.45</v>
+        <v>46.39</v>
       </c>
       <c r="E27" t="n">
-        <v>35.64</v>
+        <v>30.84</v>
       </c>
       <c r="F27" t="n">
-        <v>16.19</v>
+        <v>14.11</v>
       </c>
       <c r="G27" t="n">
-        <v>7.24</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="28">
@@ -24965,13 +24965,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>102219.15761718</v>
+        <v>101829.10187407</v>
       </c>
       <c r="C2" t="n">
         <v>104536.90563348</v>
       </c>
       <c r="D2" t="n">
-        <v>2318</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="3">
@@ -24979,13 +24979,13 @@
         <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>93027.93087085</v>
+        <v>92807.10818869</v>
       </c>
       <c r="C3" t="n">
         <v>91577.64567625</v>
       </c>
       <c r="D3" t="n">
-        <v>-1450</v>
+        <v>-1229</v>
       </c>
     </row>
     <row r="4">

--- a/summary_file_droppeCOVIDrevs_FY2022.xlsx
+++ b/summary_file_droppeCOVIDrevs_FY2022.xlsx
@@ -10,8 +10,8 @@
     <sheet name="exp_long" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Table 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Table 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table 4.a" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table 4.b" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Revenue CAGR" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Expenditure CAGR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="year_totals" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
@@ -41,19 +41,19 @@
     <t xml:space="preserve">02</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual Income Taxes</t>
+    <t xml:space="preserve">Individual Income Tax</t>
   </si>
   <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
-    <t xml:space="preserve">Corporate Income Taxes</t>
+    <t xml:space="preserve">Corporate Income Tax</t>
   </si>
   <si>
     <t xml:space="preserve">06</t>
   </si>
   <si>
-    <t xml:space="preserve">Sales Taxes</t>
+    <t xml:space="preserve">Sales Tax</t>
   </si>
   <si>
     <t xml:space="preserve">09</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Utility Taxes</t>
+    <t xml:space="preserve">Public Utility Tax</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">478</t>
   </si>
   <si>
-    <t xml:space="preserve">Family Services Net Medicaid</t>
+    <t xml:space="preserve">Healthcare &amp; Fam Ser Net Of Medicaid</t>
   </si>
   <si>
     <t xml:space="preserve">482</t>
@@ -9972,7 +9972,7 @@
         <v>34</v>
       </c>
       <c r="D544" t="n">
-        <v>1879.05334016</v>
+        <v>1886.18847954</v>
       </c>
       <c r="E544" t="s">
         <v>35</v>
@@ -10091,7 +10091,7 @@
         <v>48</v>
       </c>
       <c r="D551" t="n">
-        <v>2700.14563286</v>
+        <v>2700.23621584</v>
       </c>
       <c r="E551" t="s">
         <v>49</v>
@@ -23488,10 +23488,10 @@
         <v>1.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.68</v>
+        <v>-4.32</v>
       </c>
       <c r="D11" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="12">
@@ -23716,7 +23716,7 @@
         <v>8.08</v>
       </c>
       <c r="F2" t="n">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="G2" t="n">
         <v>4.54</v>
@@ -23957,22 +23957,22 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.68</v>
+        <v>-4.32</v>
       </c>
       <c r="C13" t="n">
-        <v>15.06</v>
+        <v>15.28</v>
       </c>
       <c r="D13" t="n">
-        <v>16.83</v>
+        <v>16.98</v>
       </c>
       <c r="E13" t="n">
-        <v>9.26</v>
+        <v>9.34</v>
       </c>
       <c r="F13" t="n">
-        <v>6.23</v>
+        <v>6.27</v>
       </c>
       <c r="G13" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="14">
@@ -24968,10 +24968,10 @@
         <v>101829.10187407</v>
       </c>
       <c r="C2" t="n">
-        <v>104536.90563348</v>
+        <v>104544.13135584</v>
       </c>
       <c r="D2" t="n">
-        <v>2708</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="3">
